--- a/ujaran_minta.xlsx
+++ b/ujaran_minta.xlsx
@@ -166,13 +166,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -369,8 +377,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,16 +401,16 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>824</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>9.50294083727367</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -410,16 +418,16 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>7847</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>90.4970591627263</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -427,16 +435,16 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>24.6120271580989</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -444,16 +452,16 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>6218</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>75.3879728419011</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -461,16 +469,16 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>1172</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>13.4712643678161</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -478,16 +486,16 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>7528</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>86.5287356321839</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -495,16 +503,16 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>1.21722846441948</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -512,16 +520,16 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>6330</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>98.7827715355805</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -529,16 +537,16 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>680</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>8.08368996671422</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>5.02733</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -546,16 +554,16 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>7732</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>91.9163100332858</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7991</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>94.972665</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -563,16 +571,16 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>2542</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>15.0788942935105</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -580,16 +588,16 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>14316</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>84.9211057064895</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -597,16 +605,16 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>3222</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>22.8381060391267</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -614,16 +622,16 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>10886</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>77.1618939608733</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -631,16 +639,16 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>1.40274314214464</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -648,16 +656,16 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>6326</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>98.5972568578554</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -665,16 +673,16 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>1.66897456453611</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -682,16 +690,16 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>13492</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>98.3310254354639</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -699,16 +707,16 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>1127</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>14.2100617828773</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -716,16 +724,16 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>6804</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>85.7899382171227</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -733,16 +741,16 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>820</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>15.4980154980155</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -750,16 +758,16 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>4471</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>84.5019845019845</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -767,16 +775,16 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>1042</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>16.55808</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -784,16 +792,16 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>5251</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>83.44192</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -801,16 +809,16 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <v>1.734433</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -818,16 +826,16 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>10368</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>98.265567</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
